--- a/biology/Botanique/Garde-marteau/Garde-marteau.xlsx
+++ b/biology/Botanique/Garde-marteau/Garde-marteau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le garde-marteau est chargé de conserver le marteau qui sert aux opérations de martelage. La fonction de garde-marteau a été créée en 1583 par Henri III de France. C'est à partir de l'Ordonnance de Colbert sur les Eaux-et-Forêts que ses obligations sont précisées. C'est un officier établi dans chaque maitrise particulière des eaux &amp; forêts, pour garder le marteau avec lequel on marque le bois que l'on doit couper dans les forêts du roi ou les bois réservés à la marine. Il doit vaquer en personne au martelage, et ne peut confier son marteau à personne. Il assiste aux visites des grands-maîtres, ainsi que celles des maîtres particuliers.
-En 1770, Guiot, garde-marteau de la forêt de Rambouillet tire du Traité des Forêts de Duhamel du Monceau, un manuel à l'usage des praticiens[1].
+En 1770, Guiot, garde-marteau de la forêt de Rambouillet tire du Traité des Forêts de Duhamel du Monceau, un manuel à l'usage des praticiens.
 </t>
         </is>
       </c>
